--- a/FIR Assignment/Data/adder 1 err calc.xlsx
+++ b/FIR Assignment/Data/adder 1 err calc.xlsx
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="y1_data_1" localSheetId="0">Sheet1!$B$2:$B$91</definedName>
+    <definedName name="y2_data" localSheetId="0">Sheet1!$C$2:$C$91</definedName>
     <definedName name="yorig_data_1" localSheetId="0">Sheet1!$A$2:$A$91</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -28,7 +29,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="yorig_data" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" name="y2_data" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" firstRow="11" sourceFile="C:\Users\User\Documents\Code-sync\M.Tech_Verilog\FIR Assignment\Data\y2_data.txt" delimited="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="yorig_data" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\User\Documents\Code-sync\M.Tech_Verilog\FIR Assignment\Data\yorig_data.txt" delimited="0">
       <textFields>
         <textField/>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Accuracy when input is larger than 20 bits</t>
   </si>
@@ -49,13 +57,42 @@
   <si>
     <t>Accuracy when input is smaller than 20 bits or has negative value</t>
   </si>
+  <si>
+    <t>y orig</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1 error</t>
+  </si>
+  <si>
+    <t>y2 error</t>
+  </si>
+  <si>
+    <t>ADDER 1</t>
+  </si>
+  <si>
+    <t>ADDER 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -98,11 +138,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="y2_data" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="y1_data_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="yorig_data_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="yorig_data_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,19 +434,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E91"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>3254416729</v>
       </c>
@@ -410,18 +475,25 @@
         <v>3255828479</v>
       </c>
       <c r="C2">
+        <v>3267176441</v>
+      </c>
+      <c r="D2">
         <f>((A2-B2)/A2)*100</f>
         <v>-4.3379509065939292E-2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2">
+        <f>((A2-C2)/A2)*100</f>
+        <v>-0.39207369745548032</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>100 - ABS(SUM(C2:C41)/40)</f>
+      <c r="G2">
+        <f>100 - ABS(SUM(D2:D41)/40)</f>
         <v>99.788136947121387</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2786217403</v>
       </c>
@@ -429,18 +501,25 @@
         <v>2791309311</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">((A3-B3)/A3)*100</f>
+        <v>2802826881</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">((A3-B3)/A3)*100</f>
         <v>-0.18275343462133992</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">((A3-C3)/A3)*100</f>
+        <v>-0.59613000701654151</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>100 - ABS(SUM(C42:C71)/30)</f>
+      <c r="G3">
+        <f>100 - ABS(SUM(D42:D71)/30)</f>
         <v>-230.76881614151239</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1074331392</v>
       </c>
@@ -448,18 +527,25 @@
         <v>1076887551</v>
       </c>
       <c r="C4">
+        <v>1086576032</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>-0.2379302158565241</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-1.1397451560272382</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <f>100 - ABS(SUM(C72:C101)/30)</f>
+      <c r="G4">
+        <f>100 - ABS(SUM(D72:D101)/30)</f>
         <v>96.489725615864941</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>435199829</v>
       </c>
@@ -467,11 +553,18 @@
         <v>435159039</v>
       </c>
       <c r="C5">
+        <v>445583891</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>9.3727058886321386E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-2.3860445956195449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4038163509</v>
       </c>
@@ -479,11 +572,21 @@
         <v>4040163327</v>
       </c>
       <c r="C6">
+        <v>4050906301</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>-4.9522957541043938E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-0.31555908946231825</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3814325110</v>
       </c>
@@ -491,11 +594,25 @@
         <v>3814719487</v>
       </c>
       <c r="C7">
+        <v>3823783904</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>-1.0339365120347594E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-0.24798080203498962</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>100 - ABS(SUM(E2:E41)/40)</f>
+        <v>98.959372605640525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1687048210</v>
       </c>
@@ -503,11 +620,25 @@
         <v>1688207359</v>
       </c>
       <c r="C8">
+        <v>1697299614</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>-6.8708706314919127E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-0.60765329284810421</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>100 - ABS(SUM(E41:E70)/30)</f>
+        <v>-2204.5286975949425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4129986359</v>
       </c>
@@ -515,11 +646,25 @@
         <v>4129292287</v>
       </c>
       <c r="C9">
+        <v>4138683355</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>1.6805672940964793E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-0.2105817124806634</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>100 - ABS(SUM(D71:D100)/30)</f>
+        <v>96.524587484459531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>957471034</v>
       </c>
@@ -527,11 +672,18 @@
         <v>960495615</v>
       </c>
       <c r="C10">
+        <v>970492350</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>-0.31589268944923504</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-1.3599697053602982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>233209892</v>
       </c>
@@ -539,11 +691,18 @@
         <v>235929599</v>
       </c>
       <c r="C11">
+        <v>244911888</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>-1.1662056770730806</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5.0177957288364077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>354934805</v>
       </c>
@@ -551,11 +710,18 @@
         <v>357564415</v>
       </c>
       <c r="C12">
+        <v>366643931</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>-0.74087127071125081</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-3.2989511975304873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3515925821</v>
       </c>
@@ -563,11 +729,18 @@
         <v>3523215359</v>
       </c>
       <c r="C13">
+        <v>3529740805</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>-0.20732911816457802</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-0.39292592345053345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>3170571703</v>
       </c>
@@ -575,11 +748,18 @@
         <v>3172990975</v>
       </c>
       <c r="C14">
+        <v>3182002179</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>-7.630396744255559E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-0.36051782046703013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>876572338</v>
       </c>
@@ -587,11 +767,18 @@
         <v>878706687</v>
       </c>
       <c r="C15">
+        <v>889616128</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>-0.24348806224820657</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-1.4880449033745347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1205948868</v>
       </c>
@@ -599,11 +786,18 @@
         <v>1209008127</v>
       </c>
       <c r="C16">
+        <v>1216477778</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>-0.25368065605249196</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-0.8730809638273983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3413852053</v>
       </c>
@@ -611,11 +805,18 @@
         <v>3416260607</v>
       </c>
       <c r="C17">
+        <v>3424897625</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>-7.0552383718076719E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-0.32355157249106486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3580469737</v>
       </c>
@@ -623,11 +824,18 @@
         <v>3581935615</v>
       </c>
       <c r="C18">
+        <v>3590345323</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>-4.0940940928835455E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-0.27581816703957246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>277889715</v>
       </c>
@@ -635,11 +843,18 @@
         <v>278921215</v>
       </c>
       <c r="C19">
+        <v>288028561</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>-0.37119041991172652</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-3.6485143035970227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>637089700</v>
       </c>
@@ -647,11 +862,18 @@
         <v>637534207</v>
       </c>
       <c r="C20">
+        <v>645516414</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>-6.9771493715877056E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-1.3226887830708924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4041203864</v>
       </c>
@@ -659,11 +881,18 @@
         <v>4042260479</v>
       </c>
       <c r="C21">
+        <v>4052619576</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>-2.6146045474532389E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-0.28248295270856943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>4264233978</v>
       </c>
@@ -671,11 +900,18 @@
         <v>4266655743</v>
       </c>
       <c r="C22">
+        <v>4276829264</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>-5.6792498078068639E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-0.29537042444156431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1559740681</v>
       </c>
@@ -683,11 +919,18 @@
         <v>1561329663</v>
       </c>
       <c r="C23">
+        <v>1570918787</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>-0.1018747551664327</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-0.7166643876232911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1960047721</v>
       </c>
@@ -695,11 +938,18 @@
         <v>1962934271</v>
       </c>
       <c r="C24">
+        <v>1971373857</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>-0.14726937355011469</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-0.57785001245895684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>817353364</v>
       </c>
@@ -707,11 +957,18 @@
         <v>821035007</v>
       </c>
       <c r="C25">
+        <v>828571344</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>-0.45043467882515503</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-1.3724761521872197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1097301734</v>
       </c>
@@ -719,11 +976,18 @@
         <v>1103101951</v>
       </c>
       <c r="C26">
+        <v>1110323558</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>-0.52858906718906173</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-1.1867131525010421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>353917356</v>
       </c>
@@ -731,11 +995,18 @@
         <v>356515839</v>
       </c>
       <c r="C27">
+        <v>364179014</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>-0.73420615178872439</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-2.8994503451252047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>2640852874</v>
       </c>
@@ -743,11 +1014,18 @@
         <v>2642411519</v>
       </c>
       <c r="C28">
+        <v>2650833936</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>-5.902051626371671E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>-0.37794843091285368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>651366567</v>
       </c>
@@ -755,11 +1033,18 @@
         <v>654311423</v>
       </c>
       <c r="C29">
+        <v>662938353</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>-0.45210426036496282</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-1.7765397529222589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>970185698</v>
       </c>
@@ -767,11 +1052,18 @@
         <v>970981375</v>
       </c>
       <c r="C30">
+        <v>980429896</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>-8.2012856058407899E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>-1.0559007436533041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1265800913</v>
       </c>
@@ -779,11 +1071,18 @@
         <v>1264582655</v>
       </c>
       <c r="C31">
+        <v>1275037557</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>9.6244044974867229E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-0.72970748441860223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2885888942</v>
       </c>
@@ -791,11 +1090,18 @@
         <v>2885681151</v>
       </c>
       <c r="C32">
+        <v>2895386648</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>7.2002424270698074E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>-0.32910850662942798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1524970832</v>
       </c>
@@ -803,11 +1109,18 @@
         <v>1527775231</v>
       </c>
       <c r="C33">
+        <v>1537040924</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>-0.18389853373929974</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>-0.79149658122772537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>989474626</v>
       </c>
@@ -815,11 +1128,18 @@
         <v>995098623</v>
       </c>
       <c r="C34">
+        <v>1000004040</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>-0.56838213454096198</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>-1.0641418913960103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>3537797575</v>
       </c>
@@ -827,11 +1147,18 @@
         <v>3542089727</v>
       </c>
       <c r="C35">
+        <v>3547124337</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>-0.12132271304414582</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>-0.263631872719569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>749644060</v>
       </c>
@@ -839,11 +1166,18 @@
         <v>751828991</v>
       </c>
       <c r="C36">
+        <v>755962254</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>-0.29146245752951072</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>-0.84282586058242093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>882341345</v>
       </c>
@@ -851,11 +1185,18 @@
         <v>883949567</v>
       </c>
       <c r="C37">
+        <v>888413191</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>-0.1822675554209692</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>-0.68815159058425401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1875121017</v>
       </c>
@@ -863,11 +1204,18 @@
         <v>1875902463</v>
       </c>
       <c r="C38">
+        <v>1880152643</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>-4.167443023225418E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>-0.26833606761285639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>423286727</v>
       </c>
@@ -875,11 +1223,18 @@
         <v>424673279</v>
       </c>
       <c r="C39">
+        <v>428285529</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>-0.32756803168080439</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>-1.1809493851669957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>1374781691</v>
       </c>
@@ -887,11 +1242,18 @@
         <v>1375731711</v>
       </c>
       <c r="C40">
+        <v>1380379425</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>-6.9103335185455278E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-0.40717257413635427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>1938213182</v>
       </c>
@@ -899,11 +1261,18 @@
         <v>1938817023</v>
       </c>
       <c r="C41">
+        <v>1943263200</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>-3.1154519307154318E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>-0.2605501833801892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>161652</v>
       </c>
@@ -911,11 +1280,18 @@
         <v>1048575</v>
       </c>
       <c r="C42">
+        <v>6761044</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>-548.66194046470196</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>-4082.4685126073291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>145728</v>
       </c>
@@ -923,11 +1299,18 @@
         <v>1048575</v>
       </c>
       <c r="C43">
+        <v>6226912</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>-619.54257246376812</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>-4172.9688186209924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>136777</v>
       </c>
@@ -935,11 +1318,18 @@
         <v>1048575</v>
       </c>
       <c r="C44">
+        <v>6100707</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>-666.63108563574292</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-4360.3310498110059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>160927</v>
       </c>
@@ -947,11 +1337,18 @@
         <v>1048575</v>
       </c>
       <c r="C45">
+        <v>5840829</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>-551.58425870115013</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>-3529.489768652867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>204970</v>
       </c>
@@ -959,11 +1356,18 @@
         <v>1048575</v>
       </c>
       <c r="C46">
+        <v>6382956</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>-411.57486461433382</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>-3014.0927940674246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>187109</v>
       </c>
@@ -971,11 +1375,18 @@
         <v>1048575</v>
       </c>
       <c r="C47">
+        <v>6268387</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>-460.40863881480851</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>-3250.1258624651937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>219901</v>
       </c>
@@ -983,11 +1394,18 @@
         <v>1048575</v>
       </c>
       <c r="C48">
+        <v>5653535</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>-376.83957781001453</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>-2470.9455618664761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>251885</v>
       </c>
@@ -995,11 +1413,18 @@
         <v>1048575</v>
       </c>
       <c r="C49">
+        <v>6667923</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>-316.29116461877447</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>-2547.2092423129602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>236972</v>
       </c>
@@ -1007,11 +1432,18 @@
         <v>1048575</v>
       </c>
       <c r="C50">
+        <v>6399696</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>-342.48898604054489</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>-2600.6127306179633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>187751</v>
       </c>
@@ -1019,11 +1451,18 @@
         <v>1048575</v>
       </c>
       <c r="C51">
+        <v>6129297</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>-458.49236488753718</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>-3164.5882045901221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>186580</v>
       </c>
@@ -1031,11 +1470,18 @@
         <v>1048575</v>
       </c>
       <c r="C52">
+        <v>6260680</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>-461.99753456962156</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>-3255.4936220388036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>198356</v>
       </c>
@@ -1043,11 +1489,18 @@
         <v>1048575</v>
       </c>
       <c r="C53">
+        <v>6142306</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>-428.63286212668135</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>-2996.6071104478815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>201905</v>
       </c>
@@ -1055,11 +1508,18 @@
         <v>1048575</v>
       </c>
       <c r="C54">
+        <v>6515515</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>-419.34077907926996</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>-3127.0201332309748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>231450</v>
       </c>
@@ -1067,11 +1527,18 @@
         <v>1048575</v>
       </c>
       <c r="C55">
+        <v>6554408</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>-353.04601425793908</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>-2731.8893929574424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>198725</v>
       </c>
@@ -1079,11 +1546,18 @@
         <v>1048575</v>
       </c>
       <c r="C56">
+        <v>6634229</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>-427.65127689017487</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>-3238.3967794691162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>196163</v>
       </c>
@@ -1091,11 +1565,18 @@
         <v>1048575</v>
       </c>
       <c r="C57">
+        <v>6269613</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>-434.54270173274267</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>-3096.1241416577031</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>252226</v>
       </c>
@@ -1103,11 +1584,18 @@
         <v>1048575</v>
       </c>
       <c r="C58">
+        <v>6178920</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>-315.72835472948861</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>-2349.7553781132792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>203628</v>
       </c>
@@ -1115,11 +1603,18 @@
         <v>1048575</v>
       </c>
       <c r="C59">
+        <v>6156434</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>-414.94637279745416</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>-2923.3730135344845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>114255</v>
       </c>
@@ -1127,11 +1622,18 @@
         <v>1048575</v>
       </c>
       <c r="C60">
+        <v>6065897</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="0"/>
         <v>-817.74977025075498</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>-5209.0866920484877</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>146929</v>
       </c>
@@ -1139,11 +1641,18 @@
         <v>1048575</v>
       </c>
       <c r="C61">
+        <v>5977863</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>-613.66101994841051</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>-3968.5385458282576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>200737</v>
       </c>
@@ -1151,11 +1660,18 @@
         <v>1048575</v>
       </c>
       <c r="C62">
+        <v>5595957</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="0"/>
         <v>-422.36259384169335</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>-2687.7058041118476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>4984289</v>
       </c>
@@ -1163,11 +1679,18 @@
         <v>5242879</v>
       </c>
       <c r="C63">
+        <v>10640119</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="0"/>
         <v>-5.1881020542749425</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>-113.47315534873681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>17757611</v>
       </c>
@@ -1175,11 +1698,18 @@
         <v>16777215</v>
       </c>
       <c r="C64">
+        <v>24322147</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="0"/>
         <v>5.5209904080002659</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>-36.967450182347164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>4259562618</v>
       </c>
@@ -1187,11 +1717,18 @@
         <v>4260364287</v>
       </c>
       <c r="C65">
+        <v>4269536118</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="0"/>
         <v>-1.8820453457176995E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>-0.2341437582782355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>4225984868</v>
       </c>
@@ -1199,11 +1736,18 @@
         <v>4227858431</v>
       </c>
       <c r="C66">
+        <v>4237946950</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="0"/>
         <v>-4.433435183800568E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>-0.28306021847307761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>4251846207</v>
       </c>
@@ -1211,11 +1755,18 @@
         <v>4255121407</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="1">((A67-B67)/A67)*100</f>
+        <v>4267722887</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D91" si="2">((A67-B67)/A67)*100</f>
         <v>-7.7030067423602841E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="E67">
+        <f t="shared" ref="E67:E91" si="3">((A67-C67)/A67)*100</f>
+        <v>-0.37340673267677293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>4229053526</v>
       </c>
@@ -1223,11 +1774,18 @@
         <v>4234149887</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <v>4246012068</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
         <v>-0.12050831158006961</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>-0.40100088343029405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>4252726535</v>
       </c>
@@ -1235,11 +1793,18 @@
         <v>4259315711</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <v>4269186963</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
         <v>-0.15494003542835372</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>-0.3870558773184789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>6478575</v>
       </c>
@@ -1247,11 +1812,18 @@
         <v>10485759</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <v>19867065</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
         <v>-61.852861161598035</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>-206.65794561303991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>4238633</v>
       </c>
@@ -1259,11 +1831,18 @@
         <v>4194303</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <v>12410327</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
         <v>1.0458560578375151</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>-192.79078891708718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>4287087664</v>
       </c>
@@ -1271,11 +1850,18 @@
         <v>4291821567</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <v>3584154</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
         <v>-0.11042235127944891</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>99.916396531144031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>31989448</v>
       </c>
@@ -1283,11 +1869,18 @@
         <v>37748735</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <v>44640236</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
         <v>-18.003708597910162</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>-39.546753041815542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>62501282</v>
       </c>
@@ -1295,11 +1888,18 @@
         <v>67108863</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <v>76592744</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
         <v>-7.3719783859793466</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>-22.545876738976332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>4241610632</v>
       </c>
@@ -1307,11 +1907,18 @@
         <v>4248829951</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <v>4259488820</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
         <v>-0.17020230347253618</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>-0.42149526562201434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>4158928842</v>
       </c>
@@ -1319,11 +1926,18 @@
         <v>4165992447</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <v>4175350378</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
         <v>-0.16984192969753148</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>-0.39485013146084502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>4197561163</v>
       </c>
@@ -1331,11 +1945,18 @@
         <v>4199546879</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <v>4209420175</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
         <v>-4.7306422060109002E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>-0.28252148186744597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>4225376089</v>
       </c>
@@ -1343,11 +1964,18 @@
         <v>4227858431</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <v>4239985607</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
         <v>-5.8748427304786598E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>-0.3457566307063939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>4235895214</v>
       </c>
@@ -1355,11 +1983,18 @@
         <v>4244635647</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <v>4255205980</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
         <v>-0.20634204951794163</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>-0.45588394009786293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>4291078470</v>
       </c>
@@ -1367,11 +2002,18 @@
         <v>3145727</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <v>12153776</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
         <v>99.926691459454943</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>99.716766400685273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>28981181</v>
       </c>
@@ -1379,11 +2021,18 @@
         <v>31457279</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <v>40288359</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
         <v>-8.5438133111276588</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>-39.015587391003834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>4270621324</v>
       </c>
@@ -1391,11 +2040,18 @@
         <v>4271898623</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <v>4281790808</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
         <v>-2.9908973498114815E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>-0.26154236474280296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>4266123261</v>
       </c>
@@ -1403,11 +2059,18 @@
         <v>4268752895</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <v>4277703837</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
         <v>-6.163989737567032E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>-0.27145432261339436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>22905978</v>
       </c>
@@ -1415,11 +2078,18 @@
         <v>24117247</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <v>30832540</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
         <v>-5.2880038564605281</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>-34.604774351918088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>59747374</v>
       </c>
@@ -1427,11 +2097,18 @@
         <v>60817407</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <v>66468012</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
         <v>-1.7909289201563907</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>-11.248424072997752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>50749931</v>
       </c>
@@ -1439,11 +2116,18 @@
         <v>55574527</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <v>61526245</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
         <v>-9.5066060286860292</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>-21.234145126226871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>6892738</v>
       </c>
@@ -1451,11 +2135,18 @@
         <v>7340031</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <v>15849310</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
         <v>-6.4893370384889142</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>-129.94215070992107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>4276457269</v>
       </c>
@@ -1463,11 +2154,18 @@
         <v>4273995775</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <v>4283448819</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
         <v>5.7559186147920792E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>-0.16348929873990983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>4229825950</v>
       </c>
@@ -1475,11 +2173,18 @@
         <v>4234149887</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <v>4244280862</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
         <v>-0.10222493906634621</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>-0.34173774928020384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>3564635</v>
       </c>
@@ -1487,11 +2192,18 @@
         <v>8388607</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <v>14741621</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
         <v>-135.32863813546129</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>-313.55204670323889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>33700367</v>
       </c>
@@ -1499,12 +2211,20 @@
         <v>37748735</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <v>44632175</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
         <v>-12.012830602111841</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>-32.438246147289732</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
